--- a/medicine/Mort/Cimetière_ancien_de_Saint-Germain-en-Laye/Cimetière_ancien_de_Saint-Germain-en-Laye.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Saint-Germain-en-Laye/Cimetière_ancien_de_Saint-Germain-en-Laye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Saint-Germain-en-Laye</t>
+          <t>Cimetière_ancien_de_Saint-Germain-en-Laye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Saint-Germain-en-Laye est situé  au 78 bis rue Léon-Désoyer dans le centre de la ville de Saint-Germain-en-Laye (Yvelines, France). D’une superficie de deux hectares, il compte 3 150 tombes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Saint-Germain-en-Laye est situé  au 78 bis rue Léon-Désoyer dans le centre de la ville de Saint-Germain-en-Laye (Yvelines, France). D’une superficie de deux hectares, il compte 3 150 tombes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Saint-Germain-en-Laye</t>
+          <t>Cimetière_ancien_de_Saint-Germain-en-Laye</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 22 décembre 1688, le roi Jacques II d'Angleterre (Stuart) est chassé de Londres et se réfugie au château de Saint-Germain-en-Laye. Il est inhumé dans l'église Saint-Germain.
-Le cimetière a été fondé en 1774 et ouvert en 1775, et agrandi en 1827 et 1855[2]. Ses sépultures anciennes sont dignes d'intérêt artistique. Des notables de la ville y sont enterrés, ainsi que plusieurs personnalités plus contemporaines, comme Maurice Denis ou Jacques Tati.
-La division A et la division B regroupent des sépultures d'Anglais et d'Américains, nombreux ici dans la seconde moitié du XIXe siècle[2]. La tombe Art nouveau d'Elizabeth Bond Swan en témoigne, ainsi que d'autres monuments imposants.
+Le cimetière a été fondé en 1774 et ouvert en 1775, et agrandi en 1827 et 1855. Ses sépultures anciennes sont dignes d'intérêt artistique. Des notables de la ville y sont enterrés, ainsi que plusieurs personnalités plus contemporaines, comme Maurice Denis ou Jacques Tati.
+La division A et la division B regroupent des sépultures d'Anglais et d'Américains, nombreux ici dans la seconde moitié du XIXe siècle. La tombe Art nouveau d'Elizabeth Bond Swan en témoigne, ainsi que d'autres monuments imposants.
 Un monument aux morts de la guerre de Crimée se dresse au milieu du cimetière en forme de colonne.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Saint-Germain-en-Laye</t>
+          <t>Cimetière_ancien_de_Saint-Germain-en-Laye</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert, André, Alphonse, comte de Bourboulon (1861-1932), grand chambellan du roi Ferdinand Ier de Bulgarie (stèle-mur en forme de fronton à la grecque surmontée d'une croix),
 Albert-Ernest Carrier-Belleuse (1824-1887), sculpteur,
@@ -565,7 +581,7 @@
 Jacques-Henri Duval (1919-1974), metteur en scène et comédien,
 Henry Vernon Esmond (1869-1922), acteur et dramaturge anglais (bas-relief en bronze d'Albert Toft),
 Laurent Fauconnier (1811-1878), architecte saint-germanois,
-Jacques Fesch (1930-1957), meurtrier et mystique chrétien. Mourut guillotiné. Revenu à la foi catholique lors de son emprisonnement. En instance de béatification[2],
+Jacques Fesch (1930-1957), meurtrier et mystique chrétien. Mourut guillotiné. Revenu à la foi catholique lors de son emprisonnement. En instance de béatification,
 Louis Forest (1872-1933), créateur du timbre antituberculeux,
 Lieutenant-colonel René Gatissou (1915-2012), résistant, Compagnon de la Libération, commandeur de la Légion d'honneur.
 Étienne de Jouy (1764-1846) : auteur, dramaturge, librettiste, journaliste, critique et chansonnier. Élu à l’Académie française en 1815 et maire de Paris en 1830. Bibliothécaire du musée du Louvre sous la Monarchie de Juillet.
@@ -573,7 +589,7 @@
 Katherine Mac Causland (1860-1930), peintre impressionniste irlandaise,
 Bernard Pierre Magnan (1791-1865), maréchal de France, sénateur du Second Empire, Grand veneur de l'Empire (chapelle),
 Albert Martine (1888-1983), peintre de l'école des Nabis
-Eugène Millet (1819-1879), architecte (tombe par Viollet-le-Duc et médaillon par Henri Chapu)[3],
+Eugène Millet (1819-1879), architecte (tombe par Viollet-le-Duc et médaillon par Henri Chapu),
 Marie-Louise de Montmorency-Luxembourg (1750-1829),
 Docteur Pierre Pecker (1866-1937) : fondateur de l'assistance scientifique à domicile : « créateur dès 1897 du premier centre français d’assistance scientifique et maternelle à domicile ».
 Michel Péricard (1929-1999), journaliste de télévision, député et maire de Saint-Germain-en-Laye, et son père Jacques Péricard (1873-1944)
